--- a/poem.xlsx
+++ b/poem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iewha-my.sharepoint.com/personal/02mjpark_i_ewha_ac_kr/Documents/바탕 화면/시/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{4D15FD48-DE39-4B8A-BB49-08E186338F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF50E6F-2702-46A6-9D9A-B579CD5FF773}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="13_ncr:1_{4D15FD48-DE39-4B8A-BB49-08E186338F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431C9499-02A1-4BCA-B8D9-35A6A8B57229}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="810" windowWidth="21600" windowHeight="14550" xr2:uid="{DD6DF32B-A3EA-4C06-BBED-EA31E8D395D0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="648">
   <si>
     <t>강은교</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51152,6 +51152,1235 @@
 스스로 울리는 자유를 기다리라
 그러나 내 간 뒤에도 신음은 들리리니
 네 파루를 소리없이 치라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 날이 오면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 날이 오면 그 날이 오면은
+삼각산이 일어나 더덩실 춤이라도 추고
+한강물이 뒤집혀 용솟음칠 그 날이
+이 목숨이 끊기기 전에 와 주기만 할량이면
+나는 밤하늘에 날으는 까마귀와 같이
+종로의 인경을 머리로 들이받아 울리오리다.
+두개골은 깨어져 산산조각이 나도
+기뻐서 죽사오매 오히려 무슨 한이 남으오리까
+.
+그 날이 와서 오오 그 날이 와서
+육조 앞 넓은 길 울며 뛰며 딩굴어도
+그래도 넘치는 기쁨에 가슴이 미어질 듯하거든
+드는 칼로 이 몸의 가죽이라도 벗겨서
+커다란 북을 만들어 들쳐 메고는
+여러분의 행렬에 앞장을 서오리다.
+우렁찬 그 소리를 한 번이라도 듣기만 하면
+그 자리에 거꾸러져도 눈을 감겠소이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신대철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박꽃이 하얗게 필 동안
+밤은 세 걸음 이상 물러나지 않는다
+벌떼 같은 사람은 잠들고
+침을 감춘 채
+뜬소문도 잠들고
+담비들은 제 집으로 돌아와 있다
+박꽃이 핀다
+물소리가 물소리로 들린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목숨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목숨은 때 묻었나.
+절반은 흙이 된 빛깔
+황폐한 얼굴엔 표정이 없다.
+나는 무한히 살고 싶더라.
+너랑 살아 보고 싶더라.
+살아서 주검보다 그리운 것이 되고 싶더라.
+억만 광년의 현암을 거쳐
+나의 목숨 안에 와 닿는
+한 개의 별빛.
+우리는 아직도 포연의 추억 속에서
+없어진 이름들을 부르고 있다.
+따뜻이 체온에 절어든 이름들.
+살은 자는 죽은 자를 증언하라.
+죽은 자는 살은 자를 고발하라.
+목숨의 조건은 고독하다.
+바라보면 멀리도 왔다마는
+나의 뒤 저편으로
+어쩌면 신명나게 바람은 불고 있다.
+어느 하 많은 시공이 지나
+모양할 수 없이 지워질 숨자리에
+나의 백조는 살아서 돌아오라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지에 아무도 손을 댈 순 없다.
+오렌지는 여기 있는 이대로의 오렌지다.
+더도 덜도 할 수 없는 오렌지다.
+내가 보는 오렌지가 나를 보고 있다.
+마음만 낸다면 나는
+오렌지의 포들한 껍질을 벗길 수도 있다.
+마땅히 그런 오렌지
+만이 문제가 된다.
+마음만 낸다면 나는
+오렌지의 찹잘한 속살을 깔 수도 있다.
+마땅히 그런 오렌지
+만이 문제가 된다.
+그러나 오렌지에 아무도 손을 댈 순 없다.
+대는 순간
+오렌지는 이미 오렌지가 아니고 만다.
+내가 보는 오렌지가 나를 보고 있다.
+나는 지금 위험한 상태에 있다.
+오렌지도 마찬가지 위험한 상태에 있다.
+시간이 똘똘
+배암의 또아리를 틀고 있다.
+그러나 다음 순간,
+오렌지의 포들한 거죽엔
+한없이 어진 그림자가 비치고 있다.
+오 누구인지 잘은 아직 몰라도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막으로 한번 더 별을 돌아보고
+늦은 밤의 창문을 나는 닫는다.
+어디선가 지구의 저쪽켠에서
+말 없이 문을 여는 사람이 있다.
+차겁고 뜨거운 그의 얼굴은
+그러나 너그러이 나를 대한다.
+나직이 나는 묵례를 보낸다.
+혹시는 나의 잠을 지켜 줄 사람인가
+지향없이 나의 밤을 헤메일 사람인가
+그의 정체를 나는 알 수가 없다.
+다음 날 이른 아침 창문을 열면
+또 한번 나의 눈은 대하게 된다.
+어디선가 지구의 저쪽켠에서
+말없이 문을 닫는 그의 모습을
+나직이 나는 묵례를 보낸다.
+그의 잠을 이번은 내가 지킬 차롄가
+그의 밤을 지향없이 내가 헤메일 차롄가.
+차겁고 뜨거운 어진 사람은
+언제나 이렇게 나와 만난다.
+언제나 이렇게 나와 헤어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람은 한로의
+음절을 밟고 지나간다.
+귀뚜리는 나를 보아도
+이젠 두려워하지 않는다.
+차운 돌에 수염을 착 붙이고
+멀리 무슨 신호를 보내고 있나.
+어디선가 받아 읽는 가을의 사람은
+일손을 놓고
+한동안을 멍하니 잠기고 있다.
+귀뚜리의 송신도 이내 끝나면
+하늘은 바이없는
+청자의 심연이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍데기는 가라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍데기는 가라.
+4월도 알맹이만 남고
+껍데기는 가라.
+껍데기는 가라.
+동학년 곰나루의, 그 아우성만 살고
+껍데기는 가라.
+그리하여, 다시
+껍데기는 가라.
+이곳에선, 두 가슴과 그곳까지 내논
+아사달 아사녀가
+중립의 초례청 앞에 서서
+부끄럼 빛내며
+맞절할지니
+껍데기는 가라.
+한라에서 백두까지 
+향그러운 흙가슴만 남고
+그, 모오든 쇠붙이는 가라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 하늘을 보았다 하는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 하늘을 보았다 하는가
+누가 구름 한 송이 없이 맑은
+하늘을 보았다 하는가.
+네가 본 건, 먹구름
+그걸 하늘로 알고
+일생을 살아갔다.
+네가 본 건, 지붕 덮은
+쇠 항아리,
+그걸 하늘로 알고
+일생을 살아갔다.
+닦아라, 사람들아
+네 마음속 구름
+찢어라, 사람들아,
+네 머리 덮은 쇠 항아리.
+아침 저녁
+네 마음속 구름을 닦고
+티 없이 맑은 영원의 하늘
+볼 수 있는 사람은
+외경을
+알리라
+아침 저녁
+네 머리 위 쇠항아릴 찢고
+티 없이 맑은 구원의 하늘
+마실 수 있는 사람은
+연민을
+알리라
+차마 삼가서
+발걸음도 조심
+마음 조아리며.
+서럽게
+아, 엄숙한 세상을
+서럽게
+눈물 흘려
+살아가리라
+누가 하늘을 보았다 하는가,
+누가 구름 한 자락 없이 맑은
+하늘을 보았다 하는가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+향아 너의 고운 얼굴 조석으로 우물가에 비최이던 오래지 않은 옛날로 가자
+수수럭거리는 수수밭 사이  걸찍스런 웃음들 들려 나오며  호미와 바구니를 든 환한 얼굴 그림처럼 나타나던 석양.....
+구슬처럼 흘러가는 냇물가 맨발을 담그고 늘어앉아 빨래들을 두드리던 전설 같은 풍속으로 돌아가자
+눈동자를 보아라 향아 회올리는 무지개빛 허울의 눈부심에 넋 빼앗기지 말고 철따라 푸짐히 두레를 먹던 정자나무 마을로 돌아가자 미끈덩한 기생충의 생리와 허식에 인이 배기기 전으로 눈빛  아침처럼 빛나던 우리들의 고향 병들지 않은 젊음으로 찾아가자꾸나
+향아 허물어질까 두렵노라 얼굴 생김새 맞지 않는 발돋움의 흉낼랑 그만 내자
+들국화처럼 소박한 목숨을 가꾸기 위하여 맨발을 벗고 콩바심하던 차라리 그 미개지에로 가자  달이  뜨는 명절밤 비단치마를  나부끼며 떼지어 춤추던 전설 같은 풍속으로 돌아가자 냇물 굽이치는 싱싱한 마음밭으로 돌아가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아니오
+미워한 적 없어요,
+산 마루
+투명한 햇빛 쏟아지는데
+차마 어두운 생각 했을리야.  차마,
+아니오
+괴뤄한 적 없어요,
+능선 위
+바람 같은 음악 흘러가는데
+뉘라, 색동 눈물 밖으로 쏟았을 리야.
+아니오
+사랑한 적 없어요,
+세계의
+지붕 혼자 바람 마시며
+옷입은 도시 계집 사랑했을리야.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산에 언덕에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리운 그의 얼굴 다시 찾을 수 없어도
+화사한 그의 꽃
+산에 언덕에 피어날지어이.
+그리운 그의 노래 다시 들을 수 없어도
+맑은 그 숨결
+들에 숲속에 살아갈지어이.
+쓸쓸한 마음으로 들길 더듬는 행인아.
+눈길 비었거든 바람 담을지네.
+바람 비었거든 인정 담을지네.
+그리운 그의 모습 다시 찾을 수 없어도
+울고 간 그의 영혼
+들에 언덕에 피어날지어이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다운 
+하늘밑
+너도야 왔다 가는구나
+쓸쓸한 세상세월
+너도야 왔다 가는구나
+다시는 못 만날지라도 먼 훗날
+무덤 속 누워 추억하자,
+호젓한 산골길서 마주친
+그날, 우리 왜
+인사도 없이
+지나쳤던가, 하고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진달래 산천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길가엔 진달래 몇 뿌리
+꽃 펴 있고,
+바위 모서리엔
+이름 모를 나비 하나
+머물고 있었어요.
+잔디밭엔 장총을 버려 던진 채
+당신은 
+잠이 들었죠.
+햇빛 맑은 그 옛날
+후고구렷적 장수들이
+의형제를 묻던,
+거기가 바로
+그 바위라 하더군요.
+기다림에 지친 사람들은
+산으로 갔어요
+뼛섬은 썩어 꽃죽 널리도록.
+남햇가,
+두고 온 마을에선
+언제인가, 눈먼 식구들이
+굶고 있다고 담배를 말으며
+당신은 쓸쓸히 웃었지요.
+지까다비 속에 든 누군가의
+발목을
+과수원 모래밭에선 보고 왔어요.
+꽃 살이 튀는 산허리를 무너
+온종일
+탄환을 퍼부었지요.
+길가엔 진달래 몇 뿌리
+꽃 펴 있고,
+바위 그늘 밑엔
+얼굴 고운 사람 하나
+서늘히 잠들어 있었어요.
+꽃다운 산골 비행기가
+지나다
+기관포 쏟아 놓고 가 버리더군요.
+기다림에 지친 사람들은
+산으로 갔어요.
+그리움은 회올려
+하늘에 불 붙도록.
+뼛섬은 썩어
+꽃죽 널리도록.
+바람 따신 그 옛날
+후고구렷적 장수들이
+의형제를 묻던
+거기가 바로
+그 바위라 하더군요.
+잔디밭에 담배갑 버려 던진 채
+당신은 피
+흘리고 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로 5가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슬비 오는 날,
+종로 5가 서시오판* 옆에서
+낯선 소년이 나를 붙들고 동대문을 물었다.
+밤 열한시 반,
+통금에 쫓기는 군상(群像) 속에서 죄 없이
+크고 맑기만 한 그 소년의 눈동자와
+내 도시락 보자기가 비에 젖고 있었다.
+국민학교를 갓 나왔을까.
+새로 사 신은 운동환 벗어 품고
+그 소년의 등허리선 먼 길 떠나온 고구마가
+흙 묻은 얼굴들을 맞부비며 저희끼리 비에 젖고 있었다.
+충청북도 보은 속리산, 아니면
+전라남도 해남땅 어촌(漁村) 말씨였을까.
+나는 가로수 하나를 걷다 되돌아섰다.
+그러나 노동자의 홍수 속에 묻혀 그 소년은 보이지 않았다.
+그렇지.
+눈녹이 바람이 부는 질척질척한 겨울날,
+종묘 담을 끼고 돌다가 나는 보았어.
+그의 누나였을까.
+부은 한쪽 눈의 창녀가 양지 쪽 기대 앉아
+속내의 바람으로, 때묻은 긴 편지를 읽고 있었지.
+그리고 언젠가 보았어.
+세종로 고층건물 공사장,
+자갈지게 등짐하던 노동자 하나이 
+허리를 다쳐 쓰러져 있었지.
+그 소년의 아버지였을까.
+반도의 하늘 높이서 태양이 쏟아지고,
+싸늘한 땀방울 뿜어낸 이마엔 세 줄기 강물.
+대륙의 섬나라의
+그리고 또 오늘 저 새로운 은행국의
+물결이 뒹굴고 있었다.
+남은 것은 없었다.
+나날이 허물어져 가는 그나마 토방 한 칸.
+봄이면 쑥, 여름이면 나무뿌리, 가을이면 타작마당을 휩쓰는 빈 
+바람.
+변한 것은 없었다.
+이조 오백 년은 끝나지 않았다.
+옛날 같으면 북간도라도 갔지.
+기껏해야 버스길 삼백 리 서울로 왔지.
+고층건물 침대 속 누워 비료광고만 뿌리는 그머리 마을,
+또 무슨 넉살 꾸미기 위해 짓는지도 모를 빌딩 공사장,
+도시락 차고 왔지.
+이슬비 오는 날,
+낯선 소년이 나를 붙들고 동대문을 물었다. 
+그 소년의 죄 없이 크고 맑기만한 눈동자엔 밤이 내리고
+노동으로 지친 나의 가슴에선 도시락 보자기가
+비에 젖고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄은
+남해에서도 북녘에서도
+오지 않는다.
+너그럽고
+빛나는
+봄의 그 눈짓은,
+제주에서 두만까지
+우리가 디딘
+아름다운 논밭에서 움튼다.
+겨울은,
+바다와 대륙 밖에서
+그 매운 눈보라 몰고 왔지만
+이제 올
+너그러운 봄은, 삼천리 마을마다
+우리들 가슴속에서
+움트리라.
+움터서,
+강산을 덮은 그 미움의 쇠붙이들
+눈 녹이듯 흐물흐물
+녹여 버리겠지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁명은 있어야겠다
+아무래도 혁명은 있어야겠다
+썩고 병든 것들을 뿌리째 뽑고
+너절한 쓰레기며 누더기 따위 한파람에 몰아다가
+서해바다에 갖다 처박는
+보아라, 저 엄청난 힘을.
+온갖 자질구레한 싸움질과 야비한 음모로 얼룩져
+더러워질 대로 더러워진 벌판을
+검붉은 빛깔 하나로 뒤덮는
+들어보아라, 저 크고 높은 통곡을.
+혁명은 있어야겠다
+아무래도 혁명은 있어야겠다.
+더러 곳곳하게 잘 자란 나무가 잘못 꺾이고
+생글거리며 웃는 예쁜 꽃목이
+어이없이 부러지는 일이 있더라도,
+때로 연약한 벌레들이 휩쓸려 떠내려가며
+애타게 울부짖는 안타까움이 있더라도,
+그것들을 지켜보는 허망한 눈길이 있더라도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징이 울린다 
+막이 내렸다.
+오동나무에 전등이 매어달린 가설 무대
+구경꾼이 돌아가고 난 텅빈 운동장 
+우리는 분이 얼룩진 얼굴로 
+학교 앞 소줏집에 몰려 술을 마신다.
+답답하고 고달프게 사는 것이 원통하다.
+꽹가리를 앞장세워 장거리로 나서면 
+따라붙어 악을 쓰는 건 쪼무래기들뿐
+처녀애들은 기름집 담벽에 붙어 서서 
+철없이 킬킬대는구나.
+보름달은 밝아 어떤 녀석은 
+꺽정이처럼 울부짖고 또 어떤 녀석은 
+서림이처럼 해해대지만 이까짓
+산구석에 처박혀 발버둥친들 무엇하랴.
+비료값도 안 나오는 농사 따위야 
+아예 여편네이게나 맡겨두고
+쇠전을 거쳐 도수장 앞에 와 돌 때
+우리는 점점 신명이 난다.
+한 다리를 들고 날라리를 불꺼나.
+고개짓을 하고 어깨를 흔들꺼나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가난한 사랑 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가난하다고 해서 외로움을 모르겠는가
+너와 헤어져 돌아오는 
+눈 쌓인 골목길에 새파랗게 달빛이 쏟아지는데.
+가난하다고 해서 두려움이 없겠는가
+두 점을 치는 소리
+방범대원의 호각소리 메밀묵 사려 소리에
+눈을 뜨면 멀리 육중한 기계 굴러가는 소리.
+가난하다고 해서 그리움을 버렸겠는가
+어머님 보고 싶소 수없이 뇌어보지만 
+집 뒤 감나무에 까치밥으로 하나 남았을 
+새빨간 감 바람소리도 그려보지만.
+가난하다고 해서 사랑을 모르겠는가
+내 볼에 와 닿던 네 입술의 뜨거움
+사랑한다고 사랑한다고 속삭이던 네 숨결
+돌아서는 내 등뒤에 터지던 네 울음.
+가난하다고 해서 왜 모르겠는가.
+가난하기 때문에 이것들을 
+이 모든 것들을 버려야 한다는 것을.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말골분교 김성구 교사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한강가 작은 마을 말골분교 김성구 교사는
+종일 남에게서 배우는 것이 업이다
+오십 명이 좀 넘는 아이들한테서 배우고
+밭매는 그애들 어머니들한테서 배운다
+뱃사공한테 배우고 고기잡이한테 배운다
+산한테 들한테 물한테 배운다.
+제 아내한테도 배우고 자식한테도 배운다
+남들이 그를 선생이라 부르는 것은
+그가 이렇게 배운 것들을
+아무한테도 되돌려준다고 말하지 않는대서다
+그는 늘 배우기만 한다고 말한다
+아이들의 질문에서 배우고 또
+아이들의 장난과 다툼에서 배운다고 말한다
+하지만 사람들이 왜 모르랴
+배우기만 한다는 그한테서 아이들과 어머니들이
+똑같이 배우고 있다는 것을
+더불어 살면서 서로 배우고 가르친다는
+평범한 진실마저 모르는 잘난 사람들이
+자기만이 가르치고 이끌겠다고 설쳐대어
+세상이 온통 시끄러운 서울에서
+백리도 안 떨어진 북한강가 작은 마을 말골에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목계 장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘은 날더러 구름이 되라 하고
+땅은 날더러 바람이 되라 하네 
+청룡 흑룡 흩어져 비 개인 나루 
+잡초나 일깨우는 잔바람이 되라네 
+뱃길이라 서울 사흘 목계 나루에
+아흐레 나흘 찾아 박가분 파는
+가을볕도 서러운 방물장수 되라네 
+산은 날더러 들꽃이 되라 하고 
+강은 날더러 잔돌이 되라 하네
+산서리 맵차거든 풀속에 얼굴 묻고
+물여울 모질거든 바위 뒤에 붙으라네 
+민물 새우 끓어넘는 토방 툇마루 
+석삼년에 한 이레쯤 천치로 변해 
+짐부리고 앉아 쉬는 떠돌이가 되라네
+하늘은 날더러 바람이 되라 하고
+산은 날더러 잔돌이 되라 하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리산 노고단 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상이 시끄러울수록 
+높은 목소리만이 들리고
+사방이 어두울수록 
+큰 몸짓만이 보인다
+목소리 높을수록
+빈 곳이 많고
+몸짓 클수록 거기
+거짓 쉽게 섞인다는 것
+모르지 않으면서
+자꾸 그리로만 귀가 쏠리고
+눈이 가는 것은
+웬일일까
+대나무 깎아 그 끝에 
+먹물 묻혀
+살갗 아래 글자 새기듯
+살다 가는 일은
+서러운 일이다
+낮은 목소리 작은 몸짓으로
+살갗 아래
+분노를 감추고
+살다 가는 일은 
+아름다운 일이다
+아침 저녁
+짙푸른 하늘을 머리에 인 
+노고단을 우러르면서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물새들이 날개를 접고 엎드려
+미친 바람이 지나가기를 기다리고 있다.
+지난 세월의
+우리들의 모습도 바로 저러했을까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울 바다 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 길러본 사람만이 안다.
+반듯하게 잘 자란 나무는
+제대로 열매를 맺지 못한다는 것을
+너무 잘나고 큰 나무는
+제 치레하느라 오히려
+좋은 열매를 갖지 못한다는 것을
+한 군데쯤 부러졌거나 가지를 친 나무에
+또는 못나고 볼품없이 자란 나무에
+보다 실하고
+단단한 열매가 맺힌다는 것을
+나무를 길러본 사람만이 안다.
+우쭐대며 웃자란 나무는
+이웃 나무가 자라는 것을 가로막는다는 것을
+햇빛과 바람을 독차지해서
+동무 나무가 꽃 피고 열매 맺는 것을
+훼방한다는 것을
+그래서 뽑거나
+베어버릴 수밖에 없다는 것을
+사람이 사는 일이 어찌 꼭 이와 같을까만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해 바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구가 원수보다 더 미워지는 날이 많다.
+티끌만한 잘못이 맷방석만하게 
+동산만하게 커 보이는 때가 많다.
+그래서 세상이 어지러울수록
+남에게는 엄격하고 내게는 너그러워 지나 보다
+돌처럼 잘아지고 굳어지나 보다
+멀리 동해 바다를 내려다보며 생각한다.
+널따란 바다처럼 너그러워질 수는 없을까
+깊고 짙푸른 바다처럼
+감싸고 끌어안고 받아들일 수는 없을까
+스스로는 억센 파도로 다스리면서
+제 몸은 맵고 모진 매로 채찍질하면서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고향길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무도 찾지 않으려네
+내 살던 집 툇마루에 앉으면
+벽에는 여직도 쥐오줌 얼룩져 있으리
+담 너머로 늙은 수유나뭇잎 날리거든
+두레박으로 우물물 한 모금 떠마시고
+가윗소리 요란한 엿장수 되어
+고추 잠자리 새빨간 노을길 서성이려네
+감석깔린 장길은 피하려네
+내 좋아하던 고무신집 딸아이가
+수틀 끼고 앉았던 가겟방도 피하려네
+두엄더비 수북한 쇠전 마당을
+금줄기 찾는 허망한 금전꾼되어
+초저녁 하얀 달 보며 거닐려네
+장국밥으로 허기를 채우고
+읍내로 가는 버스에 오르려네
+쫓기듯 도망치듯 살아온 이에게만
+삶은 때로 애닯기만 하리
+긴 능선 검은 하늘에 박힌 별 보며
+길 잘못 든 나그네되어 떠나려네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 협동조합 방앗간 뒷방에 모여
+묵내기 화투를 치고
+내일은 장날, 장꾼들은 왁자지껄
+주막집 뜰에서 눈을 턴다.
+들과 산은 온통 새하얗구나, 눈은
+펑펑 쏟아지는데
+쌀값 비료값 얘기가 나오고
+선생이 된 면장 딸 얘기가 나오고
+서울로 식모살이 간 분이는
+아기를 뱄다더라. 어떡할거나.
+술에라도 취해 볼거나. 술집 색시
+싸구려 분 냄새라도 맡아 볼거나.
+우리의 슬픔을 아는 것은 우리뿐.
+올해에는 닭이라도 쳐 볼거나.
+겨울밤은 길어 묵을 먹고.
+술을 마시고 물세 시비를 하고
+색시 젓갈 장단에 유행가를 부르고
+이발소집 신랑을 다루러
+보리밭을 질러 가면 세상은 온통
+하얗구나. 눈이여 쌓여
+지붕을 덮어 다오 우리를 파묻어 다오.
+오종대 뒤에 치마를 둘러 쓰고
+숨은 저 계집애들한테
+연애 편지라도 띄워 볼거나. 우리의
+괴로움을 아는 것은 우리뿐.
+올해에는 돼지라도 먹여 볼거나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못난 놈들은 서로 얼굴만 봐도 흥겹다
+이발소 앞에 서서 참외를 깎고
+목로에 앉아 먹걸리들 들이키면
+모두들 한결같이 친구 같은 얼굴들
+호남의 가뭄 얘기 조합 빚 얘기
+약장사 기타 소리에 발장단을 치다 보면
+왜 이렇게 자꾸만 서울이 그리워지나
+어디를 들어가 섰다라도 벌일까
+주머니를 털어 색시집에라도 갈까
+학교 마당에들 모여 소주에 오징어를 찢다
+어느새 긴 여름 해도 저물어
+고무신 한 켤레 또는 조기 한 마리 들고
+달이 환한 마찻길을 절뚝이는 파장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신석초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바라춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제나 내 더럽히지 않을
+티 없는 꽃잎으로 살어 여러했건만,
+내 가슴의 그윽한 수풀 속에
+솟아오르는 구슬픈 샘물을 어이할까나나.
+청산 깊은 절에 울어 끊인
+종 소리를 아마 이슷하여이다.
+경경히 밝은 달은
+빈 절을 덧없이 비초이고
+뒤안 이슥한 꽃가지에
+잠 못 이루는 두견조차
+저리 슬피 우는다.
+아아 어이 하리. 내 홀로
+다만 내 홀로 지닐 즐거운
+무상한 열반을
+나는 꿈꾸었노라.
+그러나 나도 모르는 어지러운 티끌이
+내 맘의 맑은 거울을 흐리노라.
+몸은 서러라.
+허물 많은 사바의 몸이여!
+현세의 어지러운 번뇌가
+짐승처럼 내 몸을 물고,
+오오, 형체, 이, 아리따움과
+내 보석 수풀 속에
+비밀한 뱀이 꿈어리는 형역(形役)*의 
+끝없는 갈림길이여!
+구름으로 잔잔히 흐르는 시냇물 소리,
+지는 꽃잎도 띄워 둥둥 떠내려가것다.
+부서지는 주옥의 여울이여!
+너울너울 흘러서 창해에 
+미치기 전에야, 끊일 줄이 있으리.
+저절로 흘러가는 널조차 부러워라.
+접동새, 우는 접동새야!
+네 우지 말아라
+무슨 원한이 그다지 골수에
+사무치길래,
+밤중만, 빈 달에 피나게 울어
+남의 애를 끊느니.
+이화 흰 달 아래
+밤도 이미 삼경인 제,
+승방에 홀로 누워
+잠을 이루지 못하나니,
+시름도 병인 양하여
+내 못잊어 하노라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃잎 절구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃잎이여 그대
+다토아 피어
+비 바람에 뒤설레며
+가는 가냘픈 살갗이여.
+그대 눈길의
+머언 여로(旅路)에
+하늘과 구름
+혼자 그리워
+붉어져 가노니
+저문 산 길가에 져
+뒤둥글지라도
+마냥 붉게 타다 가는
+환한 목숨이여.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금사자야
+금빛 바람이 인다.
+해바라기가 피었다.
+하늘 아래 둘도 없는
+너의 황금 갈기
+휘황한 너의 허리.
+주홍색 아가리를
+딱딱 벌리고
+조금은 슬픈 듯한 동굴 같은
+눈을 하고
+맹수 중에
+왕 중 왕.
+꽃 펴 만발한
+싸리밭에
+불 붙은 태양의 먹이
+네 발로 움켜 잡고
+망나니로 뒹군다
+땅 위에.
+고려 천년
+화사한 날에
+해바라기가 피었다.
+금빛 노을이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들길에 서서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 산이 흰 구름을 지니고 살 듯
+내 머리 위에는 항상 푸른 하늘이 있다.
+하늘을 향하고 산림처럼 두 팔을 드러낼 수 있는 것이 얼마나 숭고한 일이냐.
+두 다리는 비록 연약하지만 젊은 산맥으로 삼고
+부절히 움직인다는 둥근 지구를 밟았거니….
+푸른 산처럼 든든하게 지구를 디디고 사는 것은 얼마나 기쁜 일이냐.
+뼈에 저리도록 생활은 슬퍼도 좋다.
+저문 들길에 서서 푸른 별을 바라보자.
+푸른 별을 바라보는 것은 하늘 아래 사는 거룩한 나의 일과이거니….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신석정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임께서 부르시면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을날 노랗게  물들인 은행잎이
+바람에 흔들려 휘날리듯이
+그렇게 가오리다
+임
+께서 부르시면…….
+호수에 안개 끼어 자욱한 밤에
+말없이 재 넘는 초승달처럼
+그렇게 가오리다
+임께서 부르시면…….
+포곤히 풀린 봄 하늘 아래
+굽이굽이 하늘가에 흐르는 물처럼
+그렇게 가오리다
+임께서 부르시면…….
+파란 하늘에 백로 노래하고
+이른 봄 잔디밭에 스며드는 햇볕처럼
+그렇게 가오리다
+임께서 부르시면…….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 먼 나라를 알으십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니, 
+당신은 그 
+먼 나라
+ 를 알으십니까?
+깊은 삼림대를 끼고 돌면
+고요한 호수에 흰 물새 날고,
+좁은 들길에 들장미 열매 붉어,
+멀리 노루 새끼 마음 놓고 뛰어다니는
+아무도 살지 않는 그 먼 나라를 알으십니까?
+그 나라에 가실 때에는 부디 잊지 마셔요.
+나와 같이 그 나라에 가서 비둘기를 키웁시다.
+어머니, 
+당신은 그 먼 나라를 알으십니까?
+산비탈 넌지시 타고 내려오면
+양지밭에 흰 염소 한가로이 풀 뜯고,
+길 솟는 옥수수밭에 해는 저물어 저물어
+먼 바다 물 소리 구슬피 들려 오는
+아무도 살지 않는 그 먼 나라를 알으십니까?
+어머니, 부디 잊지 마셔요.
+그 때 우리는 어린 양을 몰고 돌아옵시다.
+어머니, 
+당신은 그 먼 나라를 알으십니까?
+오월 하늘에 비둘기 멀리 날고,
+오늘처럼 촐촐히 비가 내리면,
+꿩 소리도 유난히 한가롭게 들리리다.
+서리 까마귀 높이 날아 산국화 더욱 곱고
+노오란 은행잎이 한들한들 푸른 하늘에 날리는 
+가을이면 어머니! 그 나라에서
+양지밭 과수원에 꿀벌이 잉잉거릴 때,
+나와 함께 그 새빨간 능금을 또옥똑 따지 않으렵니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 촛불을 켤 때가 아닙니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 재를 넘어 가는 저녁 해의 엷은 광선들이 섭섭해 합니다.
+어머니, 아직 촛불을 켜지 말으셔요.
+그리고 나의 작은 명상의 새 새끼들이
+지금도 저 푸른 하늘에서 날고 있지 않습니까?
+이윽고 하늘이 능금처럼 붉어질 때 
+그 새 새끼들은 어둠과 함께 돌아온다 합니다.
+언덕에서는 우리의 어린 양들이 낡은 녹색 침대에 누워서
+남은 햇볕을 즐기느라고 돌아오지 않고 
+조용한 호수 위에는 인제야 저녁 안개가 자욱히 내려오기 시작하였습니다.
+그러나 어머니, 아직은 촛불을 켤 때가 아닙니다.
+늙은 산의 고요히 명상하는 얼굴이 멀어가지 않고
+머언 숲에서는 밤이 끌고 오는 그 검은 치마자락이
+발길에 스치는 발자욱 소리도 들려 오지 않습니다.
+멀리 있는 기인 둑을 거쳐서 들려오는 물결 소리도
+차츰차츰 멀어갑니다
+그것은 늦은 가을부터 우리 전원을 방문하는 까마귀들이 바람을 데리고 멀리 가 버린 까닭이겠습니다.
+시방 어머니의 등에서는 어머니의 콧노래 섞인
+자장가를 듣고 싶어하는 애기의 잠덧이 있습니다. 
+어머니 아직 촛불을 켜지 말으셔요.
+이제야 저 숲 너머 하늘에 작은 별이 하나 나오지 않았습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 짐승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이와 나는
+산에서 바다를 바라다보는 것이 좋았다.
+밤나무
+소나무 
+참나무
+느티나무
+다문다문 선 사이사이로 바다는 하늘보다 푸르렀다.
+난이와 나는
+작은 짐승처럼 앉아서 바다를 바라다보는 것이 좋았다.
+짐승같이 말없이 앉아서
+바다를 바라다보는 것은 기쁜 일이었다.
+난이와 내가
+푸른 바다를 향하고 구름이 자꾸만 놓아 가는
+붉은 산호와 흰 대리석 층층계를 거닐며
+물오리처럼 떠 다니는 청자기 빛 섬을 어루만질 때
+떨리는 심장같이 자즈러지게 흩날리는 느티나무 잎새가
+난이의 머리칼에 매달리는 것을 나는 보았다.
+난이와 나는
+역시 느티나무 아래에 말없이 앉아서
+바다를 바라다보는 순하디 순한 작은 짐승이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃덤불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+태양을 의논)하는 거룩한 이야기는
+항상 태양을 등진 곳에서만 비롯하였다.
+달빛이 흡사 비오듯 쏟아지는 밤에도
+우리는 헐어진 성터를 헤매이면서
+언제 참으로 그 언제 우리 하늘에
+오롯한 태양을 모시겠느냐고
+가슴을 쥐어 뜯으며 이야기하며 이야기하며
+가슴을 쥐어 뜯지 않았느냐?
+그러는 동안에 영영 잃어버린 벗도 있다. 
+그러는 동안에 멀리 떠나버린 벗도 있다.
+그러는 동안에 몸을 팔아버린 벗도 있다.
+그러는 동안에 맘을 팔아버린 벗도 있다. 
+그러는 동안에 드디어 서른 여섯 해가 지내갔다.
+다시 우러러 보는 이 하늘에
+겨울밤 달이 아직도 차거니
+오는 봄엔 분수처럼 쏟아지는 태양을 안고
+그 어느 언덕 꽃덤불에 아늑히 안겨보리라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나와
+하늘과
+하늘 아래 푸른 산뿐이로다.
+꽃 한 송이 피어낼 지구도 없고
+새 한 마리 울어줄 지구도 없고
+노루새끼 한 마리 뛰어다닐 지구도 없다.
+나와
+밤과
+무수한 별뿐이로다.
+밀리고 흐르는 게 밤뿐이오.
+흘러도 흘러도 검은 밤뿐이로다.
+내 마음 둘 곳은 어느 밤 하늘 별이드뇨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느 지류에 서서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강물 아래로 강물 아래로
+한 줄기 어두운 이 강물 아래로
+검은 밤이 흐른다.
+은하수가 흐른다.
+낡은 밤에 숨막히는 나도 흐르고
+은하수에 빠진 푸른 별이 흐른다.
+강물 아래로 강물 아래로
+못 견디게 어두운 이 강물 아래로
+빛나는 태양이
+다다를 무렵
+이 강물 어느 지류에 조각처럼 서서
+나는 다시 푸른 하늘을 우러러 보리…….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전아사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포옹할 꽃 한 송이 없는 세월을
+얼룩진 역사의 찢긴 자락에 매달려
+그대로 소스라쳐 통곡하기에는 머언 먼 가슴 아래 깊은 계단에
+도사린 나의 젊음이 스스러워 멈춰 선다.
+좌표 없는 대낮이 밤보다 어둔 속을 
+어디서 음악 같은 가녀린 소리
+철그른 가을비가 스쳐 가며 흐느끼는 소리
+조국의 아득한 햇무리를 타고 오는 소리
+또는 목마르게 그리운 너의 목소리
+그런 메아리 속에 나를 묻어도 보지만,
+연이어 달려오는 인자한 얼굴들이 있어
+너그럽고 부드러운 웃음을 머금고
+두 손 벌려 차가운 가슴을 어루만지다간
+핏발 선 노한 눈망울로 하여
+다시 나를 질책함은
+아아, 어인 지혜의 빛나심이뇨!
+당신의 거룩한 목소리가
+내 귓전에 있는 한,
+귓전에서 파도처럼 멀리 부서지는 한,
+이웃할 별도 가고, 소리 없이 가고,
+어둠이 황하처럼 범람할지라도 좋다.
+얼룩진 역사에 만가를 보내고 참한 노래와 새벽을 잉태한 함성으로
+다시 억만 별을 불러 사탄의 가슴에 창을 겨누리라.
+새벽 종이 울 때까지 창을 겨누리라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대바람 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대바람 소리
+들리더니
+소소한 대바람 소리
+창을 흔들더니
+소설 지낸 하늘을
+눈 머금은 구름이 가고 오는지
+미닫이에 가끔
+그늘이 진다.
+국화 향기 흔들리는
+좁은 서실을
+무료히 거닐다
+앉았다, 누웠다
+잠들다 깨어 보면
+그저 그럴 날을
+눈에 들어오는
+병풍의 ‘낙지론’을
+읽어도 보고 ……
+그렇다!
+아무리 쪼들리고
+웅숭그릴지언정
+― &lt;어찌 제왕의 문에 듦을 부러워하랴&gt;
+대바람 타고
+들려오는
+머언 거문고 소리 ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송명희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나, 가진 재물 없으나
+나, 남이 가진 지식 없으나
+나, 남에게 있는 건강 있지 않으나
+나, 남이 없는 것 있으니
+나, 남이 못본 것을 보았고
+나, 남이 듣지 못한 음성 들었네
+나, 남이 받지 못한 사랑 받았고
+나, 남이 모르는 것 깨달았네
+나, 남이 가진 것 
+나, 없지만
+공평하신 하나님이
+나, 남이 없는 것 갖게 하셨네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산문에 기대어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누이야
+가을 산 그리메에 빠진 눈썹 두어 낱을
+지금도 살아서 보는가
+정정한 눈물 돌로 눌러 죽이고
+그 눈물 끝을 따라가면
+즈믄* 밤의 강이 일어서던 것을
+그 강물 깊이깊이 가라앉은 고뇌의 말씀들
+돌로 살아서 반짝여 오던 것을
+더러는 물 속에서 튀는 물고기같이
+살아오던 것을
+그리고 산다화 한 가지 꺾어 스스럼없이
+건네이던 것을
+누이야 지금도 살아서 보는가
+가을 산 그리메에 빠져 떠돌던, 그 눈썹 두어 낱을 기러기가
+강물에 부리고 가는 것을
+내 한 잔은 마시고 한 잔은 비워 두고
+더러는 잎새에 살아서 튀는 물방울같이
+그렇게 만나는 것을
+누이야 아는가
+가을 산 그리메에 빠져 떠돌던
+눈썹 두어 낱이
+지금 이 못물 속에 비쳐 옴을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하여지향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜덩이 같은 몸뚱아리에
+쇳덩이처럼 무거운 집을
+달팽이처럼 지고,
+먼동이 아니라 가까운 밤을
+밤이 아니라 트는 싹을 기다리며,
+아닌 것과 아닌 것 그 사이에서,
+줄타기하듯 모순이 꿈틀대는
+뱀을 밟고 섰다.
+눈 앞에서 또렷한 아기가 웃고,
+뒤통수가 온통 피 먹은 백정이라,
+아우성치는 자궁에서 씨가 웃으면
+망종이 펼쳐 가는 만물상이여!
+아아 구슬을 굴리어라 유리방에서 ―
+윤전기에 말리는 신문지처럼
+내장에 인쇄되는 나날을 읽었지만,
+그 방에서는 배만 있는 남자들이
+그 방에서는 목이 없는 여자들이
+허깨비처럼 천장에 붙어 있고,
+거미가 내려와서
+계집과 술 사이를
+돈처럼 뱅그르르
+돌며 살라고 한다.
+이렇게 자꾸만 좁아들다간
+내가 길이 아니면 길이 없겠고,
+안개 같은 지평선뿐이리라.
+창살 같은 갈비뼈를 뚫고 나와서
+연꽃처럼 달처럼 아주 지기 전에,
+염통이여! 네가 두르고 나온 탯줄에 꿰서,
+마주치는 빛처럼
+슬픔을 얼싸안는 슬픔을 따라,
+비렁뱅이 봇짐 속에
+더럽힌 신방 속에,
+싸우다 제사하고
+성묘하다 죽이다가
+염념을 염주처럼 묻어 놓아라.
+‘어서 갑시다’
+매달린 명태들이 노발대발하여도,
+목숨도 아닌 죽음도 아닌
+두통과 복통 사일 오락가락하면서
+귀머거리 운전수 ―
+해마저 어느새
+검댕이 되었기로
+구들장 밑이지만
+꼼짝하면 자살이다.
+얼굴이 수수께끼처럼 굳어 가는데,
+눈초리가 야속하게 빛나고 있다며는
+솜덩이 같은
+쇳덩이 같은
+이 몸뚱아리며
+게딱지 같은 집을
+사람이 될 터이니
+사람 살려라.
+모두가 죄를 먹고 시치미를 떼는데,
+개처럼 살아가니
+사람 살려라.
+허울이 좋고 붉은 두 볼로
+철면피를 탈피하고
+새살 같은 마음으로,
+세상이 들창처럼 떨어져 닫히며는,
+땅꾼처럼 뱀을 감고
+내일이 등극한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51622,10 +52851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2662E4E-B929-4C60-839A-2DC0A50D5361}">
-  <dimension ref="A2:D265"/>
+  <dimension ref="A2:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="147" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -54367,50 +55596,478 @@
         <v>551</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="C251" s="7"/>
+    <row r="251" spans="1:3" ht="229.5">
+      <c r="A251" t="s">
+        <v>552</v>
+      </c>
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>554</v>
+      </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="C252" s="7"/>
+    <row r="252" spans="1:3" ht="135">
+      <c r="A252" t="s">
+        <v>555</v>
+      </c>
+      <c r="B252" t="s">
+        <v>556</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="C253" s="7"/>
+    <row r="253" spans="1:3" ht="364.5">
+      <c r="A253" t="s">
+        <v>560</v>
+      </c>
+      <c r="B253" t="s">
+        <v>558</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>559</v>
+      </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="C254" s="7"/>
+    <row r="254" spans="1:3" ht="391.5">
+      <c r="A254" t="s">
+        <v>560</v>
+      </c>
+      <c r="B254" t="s">
+        <v>561</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>562</v>
+      </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="C255" s="7"/>
+    <row r="255" spans="1:3" ht="283.5">
+      <c r="A255" t="s">
+        <v>560</v>
+      </c>
+      <c r="B255" t="s">
+        <v>563</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="C256" s="7"/>
+    <row r="256" spans="1:3" ht="175.5">
+      <c r="A256" t="s">
+        <v>560</v>
+      </c>
+      <c r="B256" t="s">
+        <v>565</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>566</v>
+      </c>
     </row>
-    <row r="257" spans="3:3">
-      <c r="C257" s="7"/>
+    <row r="257" spans="1:3" ht="270">
+      <c r="A257" t="s">
+        <v>567</v>
+      </c>
+      <c r="B257" t="s">
+        <v>568</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>569</v>
+      </c>
     </row>
-    <row r="258" spans="3:3">
-      <c r="C258" s="7"/>
+    <row r="258" spans="1:3" ht="409.5">
+      <c r="A258" t="s">
+        <v>567</v>
+      </c>
+      <c r="B258" t="s">
+        <v>570</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>571</v>
+      </c>
     </row>
-    <row r="259" spans="3:3">
-      <c r="C259" s="7"/>
+    <row r="259" spans="1:3" ht="189">
+      <c r="A259" t="s">
+        <v>567</v>
+      </c>
+      <c r="B259" t="s">
+        <v>572</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>573</v>
+      </c>
     </row>
-    <row r="260" spans="3:3">
-      <c r="C260" s="7"/>
+    <row r="260" spans="1:3" ht="232.5" customHeight="1">
+      <c r="A260" t="s">
+        <v>567</v>
+      </c>
+      <c r="B260" t="s">
+        <v>574</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>575</v>
+      </c>
     </row>
-    <row r="261" spans="3:3">
-      <c r="C261" s="7"/>
+    <row r="261" spans="1:3" ht="216">
+      <c r="A261" t="s">
+        <v>567</v>
+      </c>
+      <c r="B261" t="s">
+        <v>576</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>577</v>
+      </c>
     </row>
-    <row r="262" spans="3:3">
-      <c r="C262" s="7"/>
+    <row r="262" spans="1:3" ht="162">
+      <c r="A262" t="s">
+        <v>567</v>
+      </c>
+      <c r="B262" t="s">
+        <v>578</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
-    <row r="263" spans="3:3">
-      <c r="C263" s="7"/>
+    <row r="263" spans="1:3" ht="409.5">
+      <c r="A263" t="s">
+        <v>567</v>
+      </c>
+      <c r="B263" t="s">
+        <v>580</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="264" spans="3:3">
-      <c r="C264" s="7"/>
+    <row r="264" spans="1:3" ht="409.5">
+      <c r="A264" t="s">
+        <v>567</v>
+      </c>
+      <c r="B264" t="s">
+        <v>582</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>583</v>
+      </c>
     </row>
-    <row r="265" spans="3:3">
-      <c r="C265" s="7"/>
+    <row r="265" spans="1:3" ht="310.5">
+      <c r="A265" t="s">
+        <v>567</v>
+      </c>
+      <c r="B265" t="s">
+        <v>584</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="297">
+      <c r="A266" t="s">
+        <v>586</v>
+      </c>
+      <c r="B266" t="s">
+        <v>587</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="363">
+      <c r="A267" t="s">
+        <v>586</v>
+      </c>
+      <c r="B267" t="s">
+        <v>589</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="297">
+      <c r="A268" t="s">
+        <v>586</v>
+      </c>
+      <c r="B268" t="s">
+        <v>591</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="346.5">
+      <c r="A269" t="s">
+        <v>586</v>
+      </c>
+      <c r="B269" t="s">
+        <v>593</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="264">
+      <c r="A270" t="s">
+        <v>586</v>
+      </c>
+      <c r="B270" t="s">
+        <v>595</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="409.5">
+      <c r="A271" t="s">
+        <v>586</v>
+      </c>
+      <c r="B271" t="s">
+        <v>597</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="66">
+      <c r="A272" t="s">
+        <v>586</v>
+      </c>
+      <c r="B272" t="s">
+        <v>600</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="330">
+      <c r="A273" t="s">
+        <v>586</v>
+      </c>
+      <c r="B273" t="s">
+        <v>601</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="231">
+      <c r="A274" t="s">
+        <v>586</v>
+      </c>
+      <c r="B274" t="s">
+        <v>603</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="313.5">
+      <c r="A275" t="s">
+        <v>586</v>
+      </c>
+      <c r="B275" t="s">
+        <v>605</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="409.5">
+      <c r="A276" t="s">
+        <v>586</v>
+      </c>
+      <c r="B276" t="s">
+        <v>608</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="214.5">
+      <c r="A277" t="s">
+        <v>586</v>
+      </c>
+      <c r="B277" t="s">
+        <v>609</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="409.5">
+      <c r="A278" t="s">
+        <v>611</v>
+      </c>
+      <c r="B278" t="s">
+        <v>612</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="247.5">
+      <c r="A279" t="s">
+        <v>611</v>
+      </c>
+      <c r="B279" t="s">
+        <v>614</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="409.5">
+      <c r="A280" t="s">
+        <v>611</v>
+      </c>
+      <c r="B280" t="s">
+        <v>616</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="231">
+      <c r="A281" t="s">
+        <v>620</v>
+      </c>
+      <c r="B281" t="s">
+        <v>618</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="346.5">
+      <c r="A282" t="s">
+        <v>620</v>
+      </c>
+      <c r="B282" t="s">
+        <v>621</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="409.5">
+      <c r="A283" t="s">
+        <v>620</v>
+      </c>
+      <c r="B283" t="s">
+        <v>623</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="363">
+      <c r="A284" t="s">
+        <v>620</v>
+      </c>
+      <c r="B284" t="s">
+        <v>625</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="379.5">
+      <c r="A285" t="s">
+        <v>620</v>
+      </c>
+      <c r="B285" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="363">
+      <c r="A286" t="s">
+        <v>620</v>
+      </c>
+      <c r="B286" t="s">
+        <v>629</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="247.5">
+      <c r="A287" t="s">
+        <v>620</v>
+      </c>
+      <c r="B287" t="s">
+        <v>631</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="247.5">
+      <c r="A288" t="s">
+        <v>620</v>
+      </c>
+      <c r="B288" t="s">
+        <v>633</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="409.5">
+      <c r="A289" t="s">
+        <v>620</v>
+      </c>
+      <c r="B289" t="s">
+        <v>635</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="409.5">
+      <c r="A290" t="s">
+        <v>620</v>
+      </c>
+      <c r="B290" t="s">
+        <v>637</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="198">
+      <c r="A291" t="s">
+        <v>639</v>
+      </c>
+      <c r="B291" t="s">
+        <v>640</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="396">
+      <c r="A292" t="s">
+        <v>642</v>
+      </c>
+      <c r="B292" t="s">
+        <v>643</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="409.5">
+      <c r="A293" t="s">
+        <v>645</v>
+      </c>
+      <c r="B293" t="s">
+        <v>646</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>647</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
